--- a/biology/Botanique/Pierre_Louis_François_Levêque_de_Vilmorin/Pierre_Louis_François_Levêque_de_Vilmorin.xlsx
+++ b/biology/Botanique/Pierre_Louis_François_Levêque_de_Vilmorin/Pierre_Louis_François_Levêque_de_Vilmorin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Louis_Fran%C3%A7ois_Lev%C3%AAque_de_Vilmorin</t>
+          <t>Pierre_Louis_François_Levêque_de_Vilmorin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Louis François Levêque de Vilmorin (Paris, 18 avril 1816 - Paris, 22 mars 1860), généralement appelé Louis de Vilmorin, le petit-fils de Philippe André de Vilmorin, est membre de l'entreprise familiale de Vilmorin-Andrieux. Il a consacré sa vie à la biologie et la chimie, principalement sur la sélection et la culture des plantes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Louis_Fran%C3%A7ois_Lev%C3%AAque_de_Vilmorin</t>
+          <t>Pierre_Louis_François_Levêque_de_Vilmorin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis de Vilmorin a élaboré une théorie de l'hérédité des plantes et a reconnu qu'il était possible de sélectionner certaines caractéristiques de la plante et de développer de nouvelles variétés présentant des caractéristiques choisies. En 1856, Louis de Vilmorin a publié sa Note sur la création d'une nouvelle race de betterave et considération sur l'hérédité chez les plantes, établissant les bases de la théorie moderne de l'industrie semencière.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_Louis_Fran%C3%A7ois_Lev%C3%AAque_de_Vilmorin</t>
+          <t>Pierre_Louis_François_Levêque_de_Vilmorin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Note sur la création d'une nouvelle race de betterave et considération sur l'hérédité des plantes, Paris, 1856.</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pierre_Louis_Fran%C3%A7ois_Lev%C3%AAque_de_Vilmorin</t>
+          <t>Pierre_Louis_François_Levêque_de_Vilmorin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,6 +589,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
